--- a/DevOps Lab Project/System_Test_Report_Group3_FINAL.xlsx
+++ b/DevOps Lab Project/System_Test_Report_Group3_FINAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C73F77-DA65-4AE9-B087-D55E813609A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF707F-AFF0-41F8-81FA-3AF8468B6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
